--- a/biology/Zoologie/Chaerilus_pictus/Chaerilus_pictus.xlsx
+++ b/biology/Zoologie/Chaerilus_pictus/Chaerilus_pictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaerilus pictus est une espèce de scorpions de la famille des Chaerilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Bangladesh, en Inde en Assam, au Meghalaya et en Arunachal Pradesh et en Chine au Tibet[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Bangladesh, en Inde en Assam, au Meghalaya et en Arunachal Pradesh et en Chine au Tibet,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 62 mm[3].
-Chaerilus pictus mesure de 38,0 à 65,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 62 mm.
+Chaerilus pictus mesure de 38,0 à 65,7 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Uromachus pictus par Pocock en 1890. Elle est placée dans le genre Chaerilus par Pocock en 1894[4]. Chaerilus gemmifer[5] est placée en synonymie par Kovařík en 2000[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Uromachus pictus par Pocock en 1890. Elle est placée dans le genre Chaerilus par Pocock en 1894. Chaerilus gemmifer est placée en synonymie par Kovařík en 2000.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1890 : Description of a new genus and species of scorpion belonging to the group Jurini. Annals and Magazine of Natural History, sér. 6, vol. 5, p. 250-252 (texte intégral).</t>
         </is>
